--- a/PDanalysis/results/BodyKendall_Total.xlsx
+++ b/PDanalysis/results/BodyKendall_Total.xlsx
@@ -13,7 +13,736 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="486">
+  <si>
+    <t>ActivityFeature</t>
+  </si>
+  <si>
+    <t>Time Lying(Night)(%)</t>
+  </si>
+  <si>
+    <t>Time Lying(Day)(%)</t>
+  </si>
+  <si>
+    <t>Time Lying(%)</t>
+  </si>
+  <si>
+    <t>Time SitStand (%)</t>
+  </si>
+  <si>
+    <t>Time Walking(%)</t>
+  </si>
+  <si>
+    <t>Time Activities(%)</t>
+  </si>
+  <si>
+    <t>Walking Acc(mean)</t>
+  </si>
+  <si>
+    <t>Walking Acc(std)</t>
+  </si>
+  <si>
+    <t>Walking Acc(variability)</t>
+  </si>
+  <si>
+    <t>Walking Acc(median)</t>
+  </si>
+  <si>
+    <t>Activities Acc(mean)</t>
+  </si>
+  <si>
+    <t>Activities Acc(std)</t>
+  </si>
+  <si>
+    <t>Activities Acc(variability)</t>
+  </si>
+  <si>
+    <t>Activities Acc(median)</t>
+  </si>
+  <si>
+    <t>Step Count</t>
+  </si>
+  <si>
+    <t>Heel strike Acc(mean)</t>
+  </si>
+  <si>
+    <t>Heel strike Acc(std)</t>
+  </si>
+  <si>
+    <t>Heel strike Acc(variability)</t>
+  </si>
+  <si>
+    <t>Heel strike Acc(median)</t>
+  </si>
+  <si>
+    <t>Step duration(mean)</t>
+  </si>
+  <si>
+    <t>Step duration(std)</t>
+  </si>
+  <si>
+    <t>Step duration(variability)</t>
+  </si>
+  <si>
+    <t>Step duration(median)</t>
+  </si>
+  <si>
+    <t>updrs_partI</t>
+  </si>
+  <si>
+    <t>0.14(0.720)</t>
+  </si>
+  <si>
+    <t>0.36(0.275)</t>
+  </si>
+  <si>
+    <t>0.43(0.179)</t>
+  </si>
+  <si>
+    <t>-0.21(0.548)</t>
+  </si>
+  <si>
+    <t>-0.29(0.399)</t>
+  </si>
+  <si>
+    <t>-0.14(0.720)</t>
+  </si>
+  <si>
+    <t>-0.50(0.109)</t>
+  </si>
+  <si>
+    <t>-0.36(0.275)</t>
+  </si>
+  <si>
+    <t>0.14(0.720)</t>
+  </si>
+  <si>
+    <t>-0.57(0.061)</t>
+  </si>
+  <si>
+    <t>-0.50(0.109)</t>
+  </si>
+  <si>
+    <t>-0.43(0.179)</t>
+  </si>
+  <si>
+    <t>0.21(0.548)</t>
+  </si>
+  <si>
+    <t>-0.64(0.031)</t>
+  </si>
+  <si>
+    <t>-0.29(0.399)</t>
+  </si>
+  <si>
+    <t>-0.50(0.109)</t>
+  </si>
+  <si>
+    <t>-0.14(0.720)</t>
+  </si>
+  <si>
+    <t>0.07(0.905)</t>
+  </si>
+  <si>
+    <t>-0.36(0.275)</t>
+  </si>
+  <si>
+    <t>0.14(0.720)</t>
+  </si>
+  <si>
+    <t>0.43(0.179)</t>
+  </si>
+  <si>
+    <t>0.50(0.109)</t>
+  </si>
+  <si>
+    <t>0.36(0.275)</t>
+  </si>
+  <si>
+    <t>updrs_partII</t>
+  </si>
+  <si>
+    <t>0.04(1.000)</t>
+  </si>
+  <si>
+    <t>0.69(0.020)</t>
+  </si>
+  <si>
+    <t>0.33(0.330)</t>
+  </si>
+  <si>
+    <t>-0.55(0.080)</t>
+  </si>
+  <si>
+    <t>-0.47(0.138)</t>
+  </si>
+  <si>
+    <t>-0.33(0.330)</t>
+  </si>
+  <si>
+    <t>-0.40(0.220)</t>
+  </si>
+  <si>
+    <t>0.33(0.330)</t>
+  </si>
+  <si>
+    <t>-0.62(0.042)</t>
+  </si>
+  <si>
+    <t>-0.55(0.080)</t>
+  </si>
+  <si>
+    <t>-0.47(0.138)</t>
+  </si>
+  <si>
+    <t>0.33(0.330)</t>
+  </si>
+  <si>
+    <t>-0.69(0.020)</t>
+  </si>
+  <si>
+    <t>-0.47(0.138)</t>
+  </si>
+  <si>
+    <t>-0.55(0.080)</t>
+  </si>
+  <si>
+    <t>-0.18(0.629)</t>
+  </si>
+  <si>
+    <t>0.04(1.000)</t>
+  </si>
+  <si>
+    <t>-0.55(0.080)</t>
+  </si>
+  <si>
+    <t>0.33(0.330)</t>
+  </si>
+  <si>
+    <t>0.76(0.008)</t>
+  </si>
+  <si>
+    <t>0.69(0.020)</t>
+  </si>
+  <si>
+    <t>0.47(0.138)</t>
+  </si>
+  <si>
+    <t>updrs_partIV</t>
+  </si>
+  <si>
+    <t>0.00(1.000)</t>
+  </si>
+  <si>
+    <t>0.50(0.109)</t>
+  </si>
+  <si>
+    <t>0.29(0.399)</t>
+  </si>
+  <si>
+    <t>-0.36(0.275)</t>
+  </si>
+  <si>
+    <t>-0.43(0.179)</t>
+  </si>
+  <si>
+    <t>-0.29(0.399)</t>
+  </si>
+  <si>
+    <t>-0.50(0.109)</t>
+  </si>
+  <si>
+    <t>-0.36(0.275)</t>
+  </si>
+  <si>
+    <t>0.29(0.399)</t>
+  </si>
+  <si>
+    <t>-0.57(0.061)</t>
+  </si>
+  <si>
+    <t>-0.50(0.109)</t>
+  </si>
+  <si>
+    <t>-0.43(0.179)</t>
+  </si>
+  <si>
+    <t>0.36(0.275)</t>
+  </si>
+  <si>
+    <t>-0.64(0.031)</t>
+  </si>
+  <si>
+    <t>-0.43(0.179)</t>
+  </si>
+  <si>
+    <t>-0.50(0.109)</t>
+  </si>
+  <si>
+    <t>-0.14(0.720)</t>
+  </si>
+  <si>
+    <t>0.07(0.905)</t>
+  </si>
+  <si>
+    <t>-0.50(0.109)</t>
+  </si>
+  <si>
+    <t>0.14(0.720)</t>
+  </si>
+  <si>
+    <t>0.71(0.014)</t>
+  </si>
+  <si>
+    <t>0.79(0.006)</t>
+  </si>
+  <si>
+    <t>0.36(0.275)</t>
+  </si>
+  <si>
+    <t>hoehn_and_yahr</t>
+  </si>
+  <si>
+    <t>0.16(0.705)</t>
+  </si>
+  <si>
+    <t>0.81(0.007)</t>
+  </si>
+  <si>
+    <t>0.48(0.154)</t>
+  </si>
+  <si>
+    <t>-0.48(0.154)</t>
+  </si>
+  <si>
+    <t>-0.32(0.373)</t>
+  </si>
+  <si>
+    <t>-0.40(0.248)</t>
+  </si>
+  <si>
+    <t>-0.32(0.373)</t>
+  </si>
+  <si>
+    <t>0.40(0.248)</t>
+  </si>
+  <si>
+    <t>-0.56(0.087)</t>
+  </si>
+  <si>
+    <t>-0.48(0.154)</t>
+  </si>
+  <si>
+    <t>-0.32(0.373)</t>
+  </si>
+  <si>
+    <t>0.40(0.248)</t>
+  </si>
+  <si>
+    <t>-0.64(0.045)</t>
+  </si>
+  <si>
+    <t>-0.32(0.373)</t>
+  </si>
+  <si>
+    <t>-0.40(0.248)</t>
+  </si>
+  <si>
+    <t>-0.08(0.900)</t>
+  </si>
+  <si>
+    <t>0.16(0.705)</t>
+  </si>
+  <si>
+    <t>-0.40(0.248)</t>
+  </si>
+  <si>
+    <t>0.32(0.373)</t>
+  </si>
+  <si>
+    <t>0.56(0.087)</t>
+  </si>
+  <si>
+    <t>0.40(0.248)</t>
+  </si>
+  <si>
+    <t>eq5d_mobility_v2</t>
+  </si>
+  <si>
+    <t>-0.42(0.233)</t>
+  </si>
+  <si>
+    <t>0.25(0.514)</t>
+  </si>
+  <si>
+    <t>-0.17(0.700)</t>
+  </si>
+  <si>
+    <t>-0.42(0.233)</t>
+  </si>
+  <si>
+    <t>-0.25(0.514)</t>
+  </si>
+  <si>
+    <t>-0.34(0.362)</t>
+  </si>
+  <si>
+    <t>-0.08(0.895)</t>
+  </si>
+  <si>
+    <t>-0.25(0.514)</t>
+  </si>
+  <si>
+    <t>-0.17(0.700)</t>
+  </si>
+  <si>
+    <t>-0.42(0.233)</t>
+  </si>
+  <si>
+    <t>-0.25(0.514)</t>
+  </si>
+  <si>
+    <t>-0.42(0.233)</t>
+  </si>
+  <si>
+    <t>-0.51(0.143)</t>
+  </si>
+  <si>
+    <t>-0.42(0.233)</t>
+  </si>
+  <si>
+    <t>0.42(0.233)</t>
+  </si>
+  <si>
+    <t>0.34(0.362)</t>
+  </si>
+  <si>
+    <t>eq5d_selfcare_v2</t>
+  </si>
+  <si>
+    <t>-0.73(0.036)</t>
+  </si>
+  <si>
+    <t>-0.05(1.000)</t>
+  </si>
+  <si>
+    <t>-0.54(0.143)</t>
+  </si>
+  <si>
+    <t>-0.05(1.000)</t>
+  </si>
+  <si>
+    <t>0.05(1.000)</t>
+  </si>
+  <si>
+    <t>0.15(0.786)</t>
+  </si>
+  <si>
+    <t>0.24(0.571)</t>
+  </si>
+  <si>
+    <t>-0.15(0.786)</t>
+  </si>
+  <si>
+    <t>0.15(0.786)</t>
+  </si>
+  <si>
+    <t>0.24(0.571)</t>
+  </si>
+  <si>
+    <t>0.15(0.786)</t>
+  </si>
+  <si>
+    <t>-0.24(0.571)</t>
+  </si>
+  <si>
+    <t>0.15(0.786)</t>
+  </si>
+  <si>
+    <t>-0.05(1.000)</t>
+  </si>
+  <si>
+    <t>0.15(0.786)</t>
+  </si>
+  <si>
+    <t>0.05(1.000)</t>
+  </si>
+  <si>
+    <t>-0.05(1.000)</t>
+  </si>
+  <si>
+    <t>-0.24(0.571)</t>
+  </si>
+  <si>
+    <t>0.24(0.571)</t>
+  </si>
+  <si>
+    <t>-0.24(0.571)</t>
+  </si>
+  <si>
+    <t>activities_v2</t>
+  </si>
+  <si>
+    <t>-0.17(0.700)</t>
+  </si>
+  <si>
+    <t>0.42(0.233)</t>
+  </si>
+  <si>
+    <t>0.08(0.895)</t>
+  </si>
+  <si>
+    <t>-0.08(0.895)</t>
+  </si>
+  <si>
+    <t>-0.68(0.038)</t>
+  </si>
+  <si>
+    <t>-0.59(0.076)</t>
+  </si>
+  <si>
+    <t>-0.42(0.233)</t>
+  </si>
+  <si>
+    <t>-0.17(0.700)</t>
+  </si>
+  <si>
+    <t>-0.25(0.514)</t>
+  </si>
+  <si>
+    <t>-0.17(0.700)</t>
+  </si>
+  <si>
+    <t>-0.51(0.143)</t>
+  </si>
+  <si>
+    <t>-0.17(0.700)</t>
+  </si>
+  <si>
+    <t>-0.25(0.514)</t>
+  </si>
+  <si>
+    <t>-0.68(0.038)</t>
+  </si>
+  <si>
+    <t>-0.51(0.143)</t>
+  </si>
+  <si>
+    <t>-0.42(0.233)</t>
+  </si>
+  <si>
+    <t>-0.17(0.700)</t>
+  </si>
+  <si>
+    <t>-0.68(0.038)</t>
+  </si>
+  <si>
+    <t>0.17(0.700)</t>
+  </si>
+  <si>
+    <t>0.42(0.233)</t>
+  </si>
+  <si>
+    <t>0.34(0.362)</t>
+  </si>
+  <si>
+    <t>0.42(0.233)</t>
+  </si>
+  <si>
+    <t>eq5d_pain_v2</t>
+  </si>
+  <si>
+    <t>-0.70(0.029)</t>
+  </si>
+  <si>
+    <t>-0.12(0.800)</t>
+  </si>
+  <si>
+    <t>-0.45(0.193)</t>
+  </si>
+  <si>
+    <t>-0.12(0.800)</t>
+  </si>
+  <si>
+    <t>0.21(0.611)</t>
+  </si>
+  <si>
+    <t>0.37(0.304)</t>
+  </si>
+  <si>
+    <t>0.12(0.800)</t>
+  </si>
+  <si>
+    <t>0.29(0.443)</t>
+  </si>
+  <si>
+    <t>0.04(1.000)</t>
+  </si>
+  <si>
+    <t>0.12(0.800)</t>
+  </si>
+  <si>
+    <t>0.21(0.611)</t>
+  </si>
+  <si>
+    <t>0.04(1.000)</t>
+  </si>
+  <si>
+    <t>0.21(0.611)</t>
+  </si>
+  <si>
+    <t>0.12(0.800)</t>
+  </si>
+  <si>
+    <t>0.04(1.000)</t>
+  </si>
+  <si>
+    <t>0.21(0.611)</t>
+  </si>
+  <si>
+    <t>-0.12(0.800)</t>
+  </si>
+  <si>
+    <t>0.12(0.800)</t>
+  </si>
+  <si>
+    <t>0.21(0.611)</t>
+  </si>
+  <si>
+    <t>-0.29(0.443)</t>
+  </si>
+  <si>
+    <t>eq5d_anxiety_v2</t>
+  </si>
+  <si>
+    <t>-0.39(0.286)</t>
+  </si>
+  <si>
+    <t>-0.13(0.793)</t>
+  </si>
+  <si>
+    <t>-0.39(0.286)</t>
+  </si>
+  <si>
+    <t>-0.13(0.793)</t>
+  </si>
+  <si>
+    <t>0.22(0.600)</t>
+  </si>
+  <si>
+    <t>0.30(0.429)</t>
+  </si>
+  <si>
+    <t>0.04(1.000)</t>
+  </si>
+  <si>
+    <t>0.22(0.600)</t>
+  </si>
+  <si>
+    <t>0.30(0.429)</t>
+  </si>
+  <si>
+    <t>0.04(1.000)</t>
+  </si>
+  <si>
+    <t>0.22(0.600)</t>
+  </si>
+  <si>
+    <t>0.04(1.000)</t>
+  </si>
+  <si>
+    <t>-0.22(0.600)</t>
+  </si>
+  <si>
+    <t>-0.48(0.179)</t>
+  </si>
+  <si>
+    <t>0.22(0.600)</t>
+  </si>
+  <si>
+    <t>0.30(0.429)</t>
+  </si>
+  <si>
+    <t>-0.30(0.429)</t>
+  </si>
+  <si>
+    <t>-0.39(0.286)</t>
+  </si>
+  <si>
+    <t>0.22(0.600)</t>
+  </si>
+  <si>
+    <t>eq5d_health_v2</t>
+  </si>
+  <si>
+    <t>-0.15(0.716)</t>
+  </si>
+  <si>
+    <t>-0.37(0.268)</t>
+  </si>
+  <si>
+    <t>-0.30(0.392)</t>
+  </si>
+  <si>
+    <t>0.22(0.543)</t>
+  </si>
+  <si>
+    <t>0.89(0.001)</t>
+  </si>
+  <si>
+    <t>0.74(0.012)</t>
+  </si>
+  <si>
+    <t>0.59(0.057)</t>
+  </si>
+  <si>
+    <t>0.74(0.012)</t>
+  </si>
+  <si>
+    <t>-0.07(0.904)</t>
+  </si>
+  <si>
+    <t>0.52(0.103)</t>
+  </si>
+  <si>
+    <t>0.59(0.057)</t>
+  </si>
+  <si>
+    <t>0.82(0.004)</t>
+  </si>
+  <si>
+    <t>0.15(0.716)</t>
+  </si>
+  <si>
+    <t>0.44(0.172)</t>
+  </si>
+  <si>
+    <t>0.89(0.001)</t>
+  </si>
+  <si>
+    <t>0.74(0.012)</t>
+  </si>
+  <si>
+    <t>0.52(0.103)</t>
+  </si>
+  <si>
+    <t>0.30(0.392)</t>
+  </si>
+  <si>
+    <t>0.82(0.004)</t>
+  </si>
+  <si>
+    <t>-0.37(0.268)</t>
+  </si>
+  <si>
+    <t>-0.59(0.057)</t>
+  </si>
+  <si>
+    <t>-0.52(0.103)</t>
+  </si>
+  <si>
+    <t>-0.30(0.392)</t>
+  </si>
   <si>
     <t>ActivityFeature</t>
   </si>
@@ -805,842 +1534,842 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>48</v>
+        <v>291</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>314</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>95</v>
+        <v>338</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>117</v>
+        <v>360</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>134</v>
+        <v>377</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>155</v>
+        <v>398</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>178</v>
+        <v>421</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>199</v>
+        <v>442</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>219</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>96</v>
+        <v>339</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>118</v>
+        <v>361</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>135</v>
+        <v>378</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>156</v>
+        <v>399</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>179</v>
+        <v>422</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>200</v>
+        <v>443</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>220</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>293</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>119</v>
+        <v>362</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>136</v>
+        <v>379</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>157</v>
+        <v>400</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>201</v>
+        <v>444</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>221</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>51</v>
+        <v>294</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>98</v>
+        <v>341</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>120</v>
+        <v>363</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>137</v>
+        <v>380</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>158</v>
+        <v>401</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>181</v>
+        <v>424</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>202</v>
+        <v>445</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>222</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>271</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>52</v>
+        <v>295</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>138</v>
+        <v>381</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>159</v>
+        <v>402</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>182</v>
+        <v>425</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>203</v>
+        <v>446</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>223</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>272</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>53</v>
+        <v>296</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>100</v>
+        <v>343</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>138</v>
+        <v>381</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>160</v>
+        <v>403</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>183</v>
+        <v>426</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>204</v>
+        <v>447</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>224</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>273</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>54</v>
+        <v>297</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>344</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>139</v>
+        <v>382</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>161</v>
+        <v>404</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>184</v>
+        <v>427</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>205</v>
+        <v>448</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>225</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>55</v>
+        <v>298</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>101</v>
+        <v>344</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>123</v>
+        <v>366</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>140</v>
+        <v>383</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>162</v>
+        <v>405</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>185</v>
+        <v>428</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>206</v>
+        <v>449</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>226</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>251</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>55</v>
+        <v>298</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>102</v>
+        <v>345</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>123</v>
+        <v>366</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>141</v>
+        <v>384</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>162</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>186</v>
+        <v>429</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>206</v>
+        <v>449</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>227</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>56</v>
+        <v>299</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>103</v>
+        <v>346</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>124</v>
+        <v>367</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>163</v>
+        <v>406</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>186</v>
+        <v>429</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>206</v>
+        <v>449</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>228</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>104</v>
+        <v>347</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>125</v>
+        <v>368</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>143</v>
+        <v>386</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>164</v>
+        <v>407</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>187</v>
+        <v>430</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>207</v>
+        <v>450</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>229</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>105</v>
+        <v>348</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>126</v>
+        <v>369</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>144</v>
+        <v>387</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>165</v>
+        <v>408</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>188</v>
+        <v>431</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>208</v>
+        <v>451</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>230</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>59</v>
+        <v>302</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>83</v>
+        <v>326</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>127</v>
+        <v>370</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>166</v>
+        <v>409</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>189</v>
+        <v>432</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>209</v>
+        <v>452</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>231</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>60</v>
+        <v>303</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>84</v>
+        <v>327</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>128</v>
+        <v>371</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>146</v>
+        <v>389</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>167</v>
+        <v>410</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>189</v>
+        <v>432</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>209</v>
+        <v>452</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>232</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>61</v>
+        <v>304</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>108</v>
+        <v>351</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>128</v>
+        <v>371</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>147</v>
+        <v>390</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>168</v>
+        <v>411</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>190</v>
+        <v>433</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>210</v>
+        <v>453</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>233</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>62</v>
+        <v>305</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>86</v>
+        <v>329</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>109</v>
+        <v>352</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>148</v>
+        <v>391</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>169</v>
+        <v>412</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>191</v>
+        <v>434</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>210</v>
+        <v>453</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>234</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>63</v>
+        <v>306</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>87</v>
+        <v>330</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>110</v>
+        <v>353</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>149</v>
+        <v>392</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>170</v>
+        <v>413</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>191</v>
+        <v>434</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>211</v>
+        <v>454</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>235</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>307</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>88</v>
+        <v>331</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>111</v>
+        <v>354</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>150</v>
+        <v>393</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>171</v>
+        <v>414</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>192</v>
+        <v>435</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>212</v>
+        <v>455</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>236</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>65</v>
+        <v>308</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>89</v>
+        <v>332</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>112</v>
+        <v>355</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>131</v>
+        <v>374</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>150</v>
+        <v>393</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>172</v>
+        <v>415</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>193</v>
+        <v>436</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>213</v>
+        <v>456</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>237</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>90</v>
+        <v>333</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>113</v>
+        <v>356</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>131</v>
+        <v>374</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>151</v>
+        <v>394</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>173</v>
+        <v>416</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>194</v>
+        <v>437</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>214</v>
+        <v>457</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>238</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>67</v>
+        <v>310</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>91</v>
+        <v>334</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>114</v>
+        <v>357</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>132</v>
+        <v>375</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>152</v>
+        <v>395</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>174</v>
+        <v>417</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>195</v>
+        <v>438</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>239</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>92</v>
+        <v>335</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>115</v>
+        <v>358</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>132</v>
+        <v>375</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>153</v>
+        <v>396</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>175</v>
+        <v>418</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>196</v>
+        <v>439</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>216</v>
+        <v>459</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>240</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>289</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>69</v>
+        <v>312</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>115</v>
+        <v>358</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>133</v>
+        <v>376</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>153</v>
+        <v>396</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>176</v>
+        <v>419</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>197</v>
+        <v>440</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>217</v>
+        <v>460</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>241</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>70</v>
+        <v>313</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>116</v>
+        <v>359</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>133</v>
+        <v>376</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>154</v>
+        <v>397</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>177</v>
+        <v>420</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>198</v>
+        <v>441</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>218</v>
+        <v>461</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>242</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
